--- a/Select Queries 1.xlsx
+++ b/Select Queries 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I351355\Desktop\Project\CRM Move\CRM Tools\Code Remediation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{140F6E2A-8F0A-45D8-9905-2AADF0F4E6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BCFA9A-4FB4-4999-8759-116CC1333061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{61A84F1B-EBF3-44EC-AE1C-96276E48AF67}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1988" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="606">
   <si>
     <t>CRM_TABNAME</t>
   </si>
@@ -14577,6 +14577,12 @@
       </rPr>
       <t xml:space="preserve">  LT_GUID-GUID</t>
     </r>
+  </si>
+  <si>
+    <t>Remove Join</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -14804,7 +14810,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15026,6 +15032,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -15300,7 +15312,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -15371,9 +15383,6 @@
     <xf numFmtId="0" fontId="16" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -15415,6 +15424,16 @@
     <xf numFmtId="0" fontId="26" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -15797,7 +15816,7 @@
   <dimension ref="A1:L460"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -15806,6 +15825,7 @@
     <col min="2" max="2" width="23" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.1796875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.5">
@@ -15821,6 +15841,9 @@
       <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="48" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="2" spans="1:12" ht="14.5">
       <c r="A2" s="5" t="s">
@@ -15933,10 +15956,10 @@
       <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="35" t="s">
+      <c r="J9" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="35"/>
+      <c r="K9" s="34"/>
       <c r="L9" t="s">
         <v>15</v>
       </c>
@@ -15968,10 +15991,10 @@
       <c r="D11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="36"/>
+      <c r="K11" s="35"/>
       <c r="L11" t="s">
         <v>19</v>
       </c>
@@ -16270,7 +16293,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.5">
+    <row r="33" spans="1:5" ht="14.5">
       <c r="A33" s="5" t="s">
         <v>39</v>
       </c>
@@ -16284,7 +16307,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="14.5">
+    <row r="34" spans="1:5" ht="14.5">
       <c r="A34" s="5" t="s">
         <v>39</v>
       </c>
@@ -16298,7 +16321,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.5">
+    <row r="35" spans="1:5" ht="14.5">
       <c r="A35" s="5" t="s">
         <v>39</v>
       </c>
@@ -16312,7 +16335,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14.5">
+    <row r="36" spans="1:5" ht="14.5">
       <c r="A36" s="5" t="s">
         <v>39</v>
       </c>
@@ -16326,7 +16349,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.5">
+    <row r="37" spans="1:5" ht="14.5">
       <c r="A37" s="5" t="s">
         <v>39</v>
       </c>
@@ -16340,7 +16363,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.5">
+    <row r="38" spans="1:5" ht="14.5">
       <c r="A38" s="5" t="s">
         <v>39</v>
       </c>
@@ -16354,7 +16377,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="14.5">
+    <row r="39" spans="1:5" ht="14.5">
       <c r="A39" s="5" t="s">
         <v>39</v>
       </c>
@@ -16368,7 +16391,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14.5">
+    <row r="40" spans="1:5" ht="14.5">
       <c r="A40" s="5" t="s">
         <v>39</v>
       </c>
@@ -16382,7 +16405,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="14.5">
+    <row r="41" spans="1:5" ht="14.5">
       <c r="A41" s="5" t="s">
         <v>39</v>
       </c>
@@ -16396,7 +16419,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="14.5">
+    <row r="42" spans="1:5" ht="14.5">
       <c r="A42" s="5" t="s">
         <v>54</v>
       </c>
@@ -16410,7 +16433,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="14.5">
+    <row r="43" spans="1:5" ht="14.5">
       <c r="A43" s="5" t="s">
         <v>57</v>
       </c>
@@ -16423,8 +16446,11 @@
       <c r="D43" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="14.5">
+      <c r="E43" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="14.5">
       <c r="A44" s="5" t="s">
         <v>54</v>
       </c>
@@ -16438,7 +16464,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="14.5">
+    <row r="45" spans="1:5" ht="14.5">
       <c r="A45" s="5" t="s">
         <v>54</v>
       </c>
@@ -16452,7 +16478,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="14.5">
+    <row r="46" spans="1:5" ht="14.5">
       <c r="A46" s="5" t="s">
         <v>61</v>
       </c>
@@ -16466,7 +16492,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="14.5">
+    <row r="47" spans="1:5" ht="14.5">
       <c r="A47" s="5" t="s">
         <v>61</v>
       </c>
@@ -16480,7 +16506,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="14.5">
+    <row r="48" spans="1:5" ht="14.5">
       <c r="A48" s="5" t="s">
         <v>64</v>
       </c>
@@ -16494,7 +16520,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="14.5">
+    <row r="49" spans="1:5" ht="14.5">
       <c r="A49" s="5" t="s">
         <v>64</v>
       </c>
@@ -16508,7 +16534,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="14.5">
+    <row r="50" spans="1:5" ht="14.5">
       <c r="A50" s="5" t="s">
         <v>64</v>
       </c>
@@ -16522,7 +16548,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="14.5">
+    <row r="51" spans="1:5" ht="14.5">
       <c r="A51" s="5" t="s">
         <v>64</v>
       </c>
@@ -16536,7 +16562,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="14.5">
+    <row r="52" spans="1:5" ht="14.5">
       <c r="A52" s="5" t="s">
         <v>64</v>
       </c>
@@ -16550,7 +16576,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="14.5">
+    <row r="53" spans="1:5" ht="14.5">
       <c r="A53" s="5" t="s">
         <v>73</v>
       </c>
@@ -16563,8 +16589,11 @@
       <c r="D53" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="14.5">
+      <c r="E53" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="14.5">
       <c r="A54" s="5" t="s">
         <v>73</v>
       </c>
@@ -16577,8 +16606,11 @@
       <c r="D54" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="14.5">
+      <c r="E54" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="14.5">
       <c r="A55" s="5" t="s">
         <v>73</v>
       </c>
@@ -16591,8 +16623,11 @@
       <c r="D55" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="14.5">
+      <c r="E55" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="14.5">
       <c r="A56" s="5" t="s">
         <v>4</v>
       </c>
@@ -16606,7 +16641,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="14.5">
+    <row r="57" spans="1:5" ht="14.5">
       <c r="A57" s="5" t="s">
         <v>61</v>
       </c>
@@ -16620,7 +16655,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="14.5">
+    <row r="58" spans="1:5" ht="14.5">
       <c r="A58" s="5" t="s">
         <v>61</v>
       </c>
@@ -16634,7 +16669,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="14.5">
+    <row r="59" spans="1:5" ht="14.5">
       <c r="A59" s="5" t="s">
         <v>61</v>
       </c>
@@ -16648,7 +16683,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="14.5">
+    <row r="60" spans="1:5" ht="14.5">
       <c r="A60" s="5" t="s">
         <v>83</v>
       </c>
@@ -16662,7 +16697,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="14.5">
+    <row r="61" spans="1:5" ht="14.5">
       <c r="A61" s="5" t="s">
         <v>83</v>
       </c>
@@ -16676,7 +16711,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="14.5">
+    <row r="62" spans="1:5" ht="14.5">
       <c r="A62" s="5" t="s">
         <v>4</v>
       </c>
@@ -16690,7 +16725,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="14.5">
+    <row r="63" spans="1:5" ht="14.5">
       <c r="A63" s="5" t="s">
         <v>64</v>
       </c>
@@ -16704,7 +16739,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="14.5">
+    <row r="64" spans="1:5" ht="14.5">
       <c r="A64" s="5" t="s">
         <v>64</v>
       </c>
@@ -16718,7 +16753,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="14.5">
+    <row r="65" spans="1:5" ht="14.5">
       <c r="A65" s="5" t="s">
         <v>61</v>
       </c>
@@ -16732,7 +16767,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="14.5">
+    <row r="66" spans="1:5" ht="14.5">
       <c r="A66" s="5" t="s">
         <v>61</v>
       </c>
@@ -16746,7 +16781,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="14.5">
+    <row r="67" spans="1:5" ht="14.5">
       <c r="A67" s="5" t="s">
         <v>57</v>
       </c>
@@ -16759,8 +16794,11 @@
       <c r="D67" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="14.5">
+      <c r="E67" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="14.5">
       <c r="A68" s="5" t="s">
         <v>57</v>
       </c>
@@ -16773,8 +16811,11 @@
       <c r="D68" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="14.5">
+      <c r="E68" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="14.5">
       <c r="A69" s="5" t="s">
         <v>57</v>
       </c>
@@ -16787,8 +16828,11 @@
       <c r="D69" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="14.5">
+      <c r="E69" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="14.5">
       <c r="A70" s="5" t="s">
         <v>96</v>
       </c>
@@ -16801,8 +16845,11 @@
       <c r="D70" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="14.5">
+      <c r="E70" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="14.5">
       <c r="A71" s="5" t="s">
         <v>96</v>
       </c>
@@ -16815,8 +16862,11 @@
       <c r="D71" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="14.5">
+      <c r="E71" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="14.5">
       <c r="A72" s="5" t="s">
         <v>96</v>
       </c>
@@ -16829,8 +16879,11 @@
       <c r="D72" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="14.5">
+      <c r="E72" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="14.5">
       <c r="A73" s="5" t="s">
         <v>96</v>
       </c>
@@ -16843,8 +16896,11 @@
       <c r="D73" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="14.5">
+      <c r="E73" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="14.5">
       <c r="A74" s="5" t="s">
         <v>96</v>
       </c>
@@ -16857,8 +16913,11 @@
       <c r="D74" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="14.5">
+      <c r="E74" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="14.5">
       <c r="A75" s="5" t="s">
         <v>57</v>
       </c>
@@ -16871,8 +16930,11 @@
       <c r="D75" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="14.5">
+      <c r="E75" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="14.5">
       <c r="A76" s="5" t="s">
         <v>96</v>
       </c>
@@ -16885,8 +16947,11 @@
       <c r="D76" s="5" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="14.5">
+      <c r="E76" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="14.5">
       <c r="A77" s="5" t="s">
         <v>61</v>
       </c>
@@ -16900,7 +16965,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="14.5">
+    <row r="78" spans="1:5" ht="14.5">
       <c r="A78" s="5" t="s">
         <v>61</v>
       </c>
@@ -16914,7 +16979,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="14.5">
+    <row r="79" spans="1:5" ht="14.5">
       <c r="A79" s="5" t="s">
         <v>107</v>
       </c>
@@ -16927,8 +16992,11 @@
       <c r="D79" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="14.5">
+      <c r="E79" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="14.5">
       <c r="A80" s="5" t="s">
         <v>107</v>
       </c>
@@ -16941,8 +17009,11 @@
       <c r="D80" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="14.5">
+      <c r="E80" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="14.5">
       <c r="A81" s="5" t="s">
         <v>107</v>
       </c>
@@ -16955,8 +17026,11 @@
       <c r="D81" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="14.5">
+      <c r="E81" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="14.5">
       <c r="A82" s="5" t="s">
         <v>107</v>
       </c>
@@ -16969,8 +17043,11 @@
       <c r="D82" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="14.5">
+      <c r="E82" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="14.5">
       <c r="A83" s="5" t="s">
         <v>83</v>
       </c>
@@ -16984,7 +17061,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="14.5">
+    <row r="84" spans="1:5" ht="14.5">
       <c r="A84" s="5" t="s">
         <v>57</v>
       </c>
@@ -16997,8 +17074,11 @@
       <c r="D84" s="5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="14.5">
+      <c r="E84" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="14.5">
       <c r="A85" s="5" t="s">
         <v>57</v>
       </c>
@@ -17011,8 +17091,11 @@
       <c r="D85" s="5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="14.5">
+      <c r="E85" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="14.5">
       <c r="A86" s="5" t="s">
         <v>57</v>
       </c>
@@ -17025,8 +17108,11 @@
       <c r="D86" s="5" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="14.5">
+      <c r="E86" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="14.5">
       <c r="A87" s="5" t="s">
         <v>116</v>
       </c>
@@ -17040,7 +17126,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="14.5">
+    <row r="88" spans="1:5" ht="14.5">
       <c r="A88" s="5" t="s">
         <v>116</v>
       </c>
@@ -17054,7 +17140,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="14.5">
+    <row r="89" spans="1:5" ht="14.5">
       <c r="A89" s="5" t="s">
         <v>116</v>
       </c>
@@ -17068,7 +17154,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="14.5">
+    <row r="90" spans="1:5" ht="14.5">
       <c r="A90" s="5" t="s">
         <v>61</v>
       </c>
@@ -17082,7 +17168,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="14.5">
+    <row r="91" spans="1:5" ht="14.5">
       <c r="A91" s="5" t="s">
         <v>61</v>
       </c>
@@ -17096,7 +17182,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="14.5">
+    <row r="92" spans="1:5" ht="14.5">
       <c r="A92" s="5" t="s">
         <v>61</v>
       </c>
@@ -17110,7 +17196,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="14.5">
+    <row r="93" spans="1:5" ht="14.5">
       <c r="A93" s="5" t="s">
         <v>83</v>
       </c>
@@ -17124,7 +17210,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="14.5">
+    <row r="94" spans="1:5" ht="14.5">
       <c r="A94" s="5" t="s">
         <v>96</v>
       </c>
@@ -17137,8 +17223,11 @@
       <c r="D94" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="14.5">
+      <c r="E94" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="14.5">
       <c r="A95" s="5" t="s">
         <v>73</v>
       </c>
@@ -17151,8 +17240,11 @@
       <c r="D95" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="14.5">
+      <c r="E95" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="14.5">
       <c r="A96" s="5" t="s">
         <v>83</v>
       </c>
@@ -17166,7 +17258,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="14.5">
+    <row r="97" spans="1:5" ht="14.5">
       <c r="A97" s="5" t="s">
         <v>73</v>
       </c>
@@ -17179,8 +17271,11 @@
       <c r="D97" s="5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="14.5">
+      <c r="E97" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="14.5">
       <c r="A98" s="5" t="s">
         <v>73</v>
       </c>
@@ -17193,8 +17288,11 @@
       <c r="D98" s="5" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="14.5">
+      <c r="E98" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="14.5">
       <c r="A99" s="5" t="s">
         <v>73</v>
       </c>
@@ -17207,8 +17305,11 @@
       <c r="D99" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="14.5">
+      <c r="E99" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="14.5">
       <c r="A100" s="5" t="s">
         <v>73</v>
       </c>
@@ -17221,8 +17322,11 @@
       <c r="D100" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="14.5">
+      <c r="E100" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="14.5">
       <c r="A101" s="5" t="s">
         <v>73</v>
       </c>
@@ -17235,8 +17339,11 @@
       <c r="D101" s="5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="14.5">
+      <c r="E101" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="14.5">
       <c r="A102" s="5" t="s">
         <v>73</v>
       </c>
@@ -17249,8 +17356,11 @@
       <c r="D102" s="5" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="14.5">
+      <c r="E102" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="14.5">
       <c r="A103" s="5" t="s">
         <v>73</v>
       </c>
@@ -17263,8 +17373,11 @@
       <c r="D103" s="5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="14.5">
+      <c r="E103" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="14.5">
       <c r="A104" s="5" t="s">
         <v>73</v>
       </c>
@@ -17277,8 +17390,11 @@
       <c r="D104" s="5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" ht="14.5">
+      <c r="E104" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="14.5">
       <c r="A105" s="5" t="s">
         <v>73</v>
       </c>
@@ -17291,8 +17407,11 @@
       <c r="D105" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="14.5">
+      <c r="E105" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="14.5">
       <c r="A106" s="5" t="s">
         <v>73</v>
       </c>
@@ -17305,8 +17424,11 @@
       <c r="D106" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="14.5">
+      <c r="E106" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="14.5">
       <c r="A107" s="5" t="s">
         <v>83</v>
       </c>
@@ -17320,7 +17442,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="14.5">
+    <row r="108" spans="1:5" ht="14.5">
       <c r="A108" s="5" t="s">
         <v>73</v>
       </c>
@@ -17333,8 +17455,11 @@
       <c r="D108" s="5" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" ht="14.5">
+      <c r="E108" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="14.5">
       <c r="A109" s="5" t="s">
         <v>116</v>
       </c>
@@ -17348,7 +17473,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="14.5">
+    <row r="110" spans="1:5" ht="14.5">
       <c r="A110" s="5" t="s">
         <v>116</v>
       </c>
@@ -17362,7 +17487,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="14.5">
+    <row r="111" spans="1:5" ht="14.5">
       <c r="A111" s="5" t="s">
         <v>116</v>
       </c>
@@ -17376,7 +17501,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="14.5">
+    <row r="112" spans="1:5" ht="14.5">
       <c r="A112" s="5" t="s">
         <v>116</v>
       </c>
@@ -17390,7 +17515,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="14.5">
+    <row r="113" spans="1:5" ht="14.5">
       <c r="A113" s="5" t="s">
         <v>116</v>
       </c>
@@ -17404,7 +17529,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="14.5">
+    <row r="114" spans="1:5" ht="14.5">
       <c r="A114" s="5" t="s">
         <v>61</v>
       </c>
@@ -17418,7 +17543,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="14.5">
+    <row r="115" spans="1:5" ht="14.5">
       <c r="A115" s="5" t="s">
         <v>61</v>
       </c>
@@ -17432,7 +17557,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="14.5">
+    <row r="116" spans="1:5" ht="14.5">
       <c r="A116" s="5" t="s">
         <v>61</v>
       </c>
@@ -17446,7 +17571,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="14.5">
+    <row r="117" spans="1:5" ht="14.5">
       <c r="A117" s="5" t="s">
         <v>4</v>
       </c>
@@ -17460,7 +17585,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="14.5">
+    <row r="118" spans="1:5" ht="14.5">
       <c r="A118" s="5" t="s">
         <v>57</v>
       </c>
@@ -17473,8 +17598,11 @@
       <c r="D118" s="5" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" ht="14.5">
+      <c r="E118" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="14.5">
       <c r="A119" s="5" t="s">
         <v>73</v>
       </c>
@@ -17487,8 +17615,11 @@
       <c r="D119" s="5" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" ht="14.5">
+      <c r="E119" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="14.5">
       <c r="A120" s="5" t="s">
         <v>4</v>
       </c>
@@ -17502,7 +17633,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="14.5">
+    <row r="121" spans="1:5" ht="14.5">
       <c r="A121" s="5" t="s">
         <v>57</v>
       </c>
@@ -17515,8 +17646,11 @@
       <c r="D121" s="5" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" ht="14.5">
+      <c r="E121" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="14.5">
       <c r="A122" s="5" t="s">
         <v>61</v>
       </c>
@@ -17530,7 +17664,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="14.5">
+    <row r="123" spans="1:5" ht="14.5">
       <c r="A123" s="5" t="s">
         <v>96</v>
       </c>
@@ -17543,8 +17677,11 @@
       <c r="D123" s="5" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" ht="14.5">
+      <c r="E123" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="14.5">
       <c r="A124" s="5" t="s">
         <v>96</v>
       </c>
@@ -17557,8 +17694,11 @@
       <c r="D124" s="5" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" ht="14.5">
+      <c r="E124" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="14.5">
       <c r="A125" s="5" t="s">
         <v>96</v>
       </c>
@@ -17571,8 +17711,11 @@
       <c r="D125" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" ht="14.5">
+      <c r="E125" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="14.5">
       <c r="A126" s="5" t="s">
         <v>96</v>
       </c>
@@ -17585,8 +17728,11 @@
       <c r="D126" s="5" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" ht="14.5">
+      <c r="E126" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="14.5">
       <c r="A127" s="5" t="s">
         <v>57</v>
       </c>
@@ -17599,8 +17745,11 @@
       <c r="D127" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" ht="14.5">
+      <c r="E127" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="14.5">
       <c r="A128" s="5" t="s">
         <v>57</v>
       </c>
@@ -17613,8 +17762,11 @@
       <c r="D128" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" ht="14.5">
+      <c r="E128" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="14.5">
       <c r="A129" s="5" t="s">
         <v>57</v>
       </c>
@@ -17627,8 +17779,11 @@
       <c r="D129" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" ht="14.5">
+      <c r="E129" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="14.5">
       <c r="A130" s="5" t="s">
         <v>61</v>
       </c>
@@ -17642,7 +17797,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="14.5">
+    <row r="131" spans="1:5" ht="14.5">
       <c r="A131" s="5" t="s">
         <v>61</v>
       </c>
@@ -17656,7 +17811,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="14.5">
+    <row r="132" spans="1:5" ht="14.5">
       <c r="A132" s="5" t="s">
         <v>96</v>
       </c>
@@ -17669,8 +17824,11 @@
       <c r="D132" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" ht="14.5">
+      <c r="E132" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="14.5">
       <c r="A133" s="5" t="s">
         <v>83</v>
       </c>
@@ -17684,7 +17842,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="14.5">
+    <row r="134" spans="1:5" ht="14.5">
       <c r="A134" s="5" t="s">
         <v>61</v>
       </c>
@@ -17698,7 +17856,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="14.5">
+    <row r="135" spans="1:5" ht="14.5">
       <c r="A135" s="5" t="s">
         <v>64</v>
       </c>
@@ -17712,7 +17870,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="14.5">
+    <row r="136" spans="1:5" ht="14.5">
       <c r="A136" s="5" t="s">
         <v>64</v>
       </c>
@@ -17726,7 +17884,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="14.5">
+    <row r="137" spans="1:5" ht="14.5">
       <c r="A137" s="5" t="s">
         <v>83</v>
       </c>
@@ -17740,7 +17898,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="14.5">
+    <row r="138" spans="1:5" ht="14.5">
       <c r="A138" s="5" t="s">
         <v>57</v>
       </c>
@@ -17753,8 +17911,11 @@
       <c r="D138" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" ht="14.5">
+      <c r="E138" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="14.5">
       <c r="A139" s="5" t="s">
         <v>96</v>
       </c>
@@ -17767,8 +17928,11 @@
       <c r="D139" s="5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" ht="14.5">
+      <c r="E139" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="14.5">
       <c r="A140" s="5" t="s">
         <v>96</v>
       </c>
@@ -17781,8 +17945,11 @@
       <c r="D140" s="5" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" ht="14.5">
+      <c r="E140" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="14.5">
       <c r="A141" s="5" t="s">
         <v>96</v>
       </c>
@@ -17795,8 +17962,11 @@
       <c r="D141" s="5" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" ht="14.5">
+      <c r="E141" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="14.5">
       <c r="A142" s="5" t="s">
         <v>96</v>
       </c>
@@ -17809,8 +17979,11 @@
       <c r="D142" s="5" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" ht="14.5">
+      <c r="E142" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="14.5">
       <c r="A143" s="5" t="s">
         <v>4</v>
       </c>
@@ -17824,7 +17997,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="14.5">
+    <row r="144" spans="1:5" ht="14.5">
       <c r="A144" s="5" t="s">
         <v>83</v>
       </c>
@@ -17838,7 +18011,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="14.5">
+    <row r="145" spans="1:5" ht="14.5">
       <c r="A145" s="5" t="s">
         <v>73</v>
       </c>
@@ -17851,8 +18024,11 @@
       <c r="D145" s="5" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" ht="14.5">
+      <c r="E145" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="14.5">
       <c r="A146" s="5" t="s">
         <v>73</v>
       </c>
@@ -17865,8 +18041,11 @@
       <c r="D146" s="5" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" ht="14.5">
+      <c r="E146" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="14.5">
       <c r="A147" s="5" t="s">
         <v>73</v>
       </c>
@@ -17879,8 +18058,11 @@
       <c r="D147" s="5" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" ht="14.5">
+      <c r="E147" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="14.5">
       <c r="A148" s="5" t="s">
         <v>96</v>
       </c>
@@ -17893,8 +18075,11 @@
       <c r="D148" s="5" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" ht="14.5">
+      <c r="E148" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="14.5">
       <c r="A149" s="5" t="s">
         <v>73</v>
       </c>
@@ -17907,8 +18092,11 @@
       <c r="D149" s="5" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" ht="14.5">
+      <c r="E149" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="14.5">
       <c r="A150" s="5" t="s">
         <v>73</v>
       </c>
@@ -17921,8 +18109,11 @@
       <c r="D150" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" ht="14.5">
+      <c r="E150" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="14.5">
       <c r="A151" s="5" t="s">
         <v>73</v>
       </c>
@@ -17935,8 +18126,11 @@
       <c r="D151" s="5" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" ht="14.5">
+      <c r="E151" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="14.5">
       <c r="A152" s="5" t="s">
         <v>107</v>
       </c>
@@ -17949,8 +18143,11 @@
       <c r="D152" s="5" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" ht="14.5">
+      <c r="E152" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="14.5">
       <c r="A153" s="5" t="s">
         <v>107</v>
       </c>
@@ -17963,8 +18160,11 @@
       <c r="D153" s="5" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" ht="14.5">
+      <c r="E153" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="14.5">
       <c r="A154" s="5" t="s">
         <v>107</v>
       </c>
@@ -17977,8 +18177,11 @@
       <c r="D154" s="5" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" ht="14.5">
+      <c r="E154" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="14.5">
       <c r="A155" s="5" t="s">
         <v>107</v>
       </c>
@@ -17991,8 +18194,11 @@
       <c r="D155" s="5" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" ht="14.5">
+      <c r="E155" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="14.5">
       <c r="A156" s="5" t="s">
         <v>107</v>
       </c>
@@ -18005,8 +18211,11 @@
       <c r="D156" s="5" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" ht="14.5">
+      <c r="E156" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="14.5">
       <c r="A157" s="5" t="s">
         <v>107</v>
       </c>
@@ -18019,8 +18228,11 @@
       <c r="D157" s="5" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" ht="14.5">
+      <c r="E157" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="14.5">
       <c r="A158" s="5" t="s">
         <v>107</v>
       </c>
@@ -18033,8 +18245,11 @@
       <c r="D158" s="5" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" ht="14.5">
+      <c r="E158" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="14.5">
       <c r="A159" s="5" t="s">
         <v>107</v>
       </c>
@@ -18047,8 +18262,11 @@
       <c r="D159" s="5" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" ht="14.5">
+      <c r="E159" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="14.5">
       <c r="A160" s="5" t="s">
         <v>73</v>
       </c>
@@ -18061,8 +18279,11 @@
       <c r="D160" s="5" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" ht="14.5">
+      <c r="E160" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="14.5">
       <c r="A161" s="5" t="s">
         <v>4</v>
       </c>
@@ -18076,7 +18297,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="14.5">
+    <row r="162" spans="1:5" ht="14.5">
       <c r="A162" s="5" t="s">
         <v>107</v>
       </c>
@@ -18089,8 +18310,11 @@
       <c r="D162" s="5" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" ht="14.5">
+      <c r="E162" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="14.5">
       <c r="A163" s="5" t="s">
         <v>107</v>
       </c>
@@ -18103,8 +18327,11 @@
       <c r="D163" s="5" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" ht="14.5">
+      <c r="E163" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="14.5">
       <c r="A164" s="5" t="s">
         <v>107</v>
       </c>
@@ -18117,8 +18344,11 @@
       <c r="D164" s="5" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" ht="14.5">
+      <c r="E164" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="14.5">
       <c r="A165" s="5" t="s">
         <v>107</v>
       </c>
@@ -18131,8 +18361,11 @@
       <c r="D165" s="5" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" ht="14.5">
+      <c r="E165" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="14.5">
       <c r="A166" s="5" t="s">
         <v>4</v>
       </c>
@@ -18146,7 +18379,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="14.5">
+    <row r="167" spans="1:5" ht="14.5">
       <c r="A167" s="5" t="s">
         <v>73</v>
       </c>
@@ -18159,8 +18392,11 @@
       <c r="D167" s="5" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" ht="14.5">
+      <c r="E167" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="14.5">
       <c r="A168" s="5" t="s">
         <v>73</v>
       </c>
@@ -18173,8 +18409,11 @@
       <c r="D168" s="5" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" ht="14.5">
+      <c r="E168" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="14.5">
       <c r="A169" s="5" t="s">
         <v>4</v>
       </c>
@@ -18188,7 +18427,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="14.5">
+    <row r="170" spans="1:5" ht="14.5">
       <c r="A170" s="5" t="s">
         <v>4</v>
       </c>
@@ -18202,7 +18441,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="171" spans="1:4" ht="14.5">
+    <row r="171" spans="1:5" ht="14.5">
       <c r="A171" s="5" t="s">
         <v>64</v>
       </c>
@@ -18216,7 +18455,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="14.5">
+    <row r="172" spans="1:5" ht="14.5">
       <c r="A172" s="5" t="s">
         <v>64</v>
       </c>
@@ -18230,7 +18469,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="173" spans="1:4" ht="14.5">
+    <row r="173" spans="1:5" ht="14.5">
       <c r="A173" s="5" t="s">
         <v>64</v>
       </c>
@@ -18244,7 +18483,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="174" spans="1:4" ht="14.5">
+    <row r="174" spans="1:5" ht="14.5">
       <c r="A174" s="5" t="s">
         <v>64</v>
       </c>
@@ -18258,7 +18497,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="14.5">
+    <row r="175" spans="1:5" ht="14.5">
       <c r="A175" s="5" t="s">
         <v>64</v>
       </c>
@@ -18272,7 +18511,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="176" spans="1:4" ht="14.5">
+    <row r="176" spans="1:5" ht="14.5">
       <c r="A176" s="5" t="s">
         <v>64</v>
       </c>
@@ -18286,7 +18525,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="177" spans="1:4" ht="14.5">
+    <row r="177" spans="1:5" ht="14.5">
       <c r="A177" s="5" t="s">
         <v>64</v>
       </c>
@@ -18300,7 +18539,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="14.5">
+    <row r="178" spans="1:5" ht="14.5">
       <c r="A178" s="5" t="s">
         <v>64</v>
       </c>
@@ -18314,7 +18553,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="179" spans="1:4" ht="14.5">
+    <row r="179" spans="1:5" ht="14.5">
       <c r="A179" s="5" t="s">
         <v>96</v>
       </c>
@@ -18327,8 +18566,11 @@
       <c r="D179" s="5" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" ht="14.5">
+      <c r="E179" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="14.5">
       <c r="A180" s="5" t="s">
         <v>57</v>
       </c>
@@ -18341,8 +18583,11 @@
       <c r="D180" s="5" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" ht="14.5">
+      <c r="E180" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="14.5">
       <c r="A181" s="5" t="s">
         <v>116</v>
       </c>
@@ -18356,7 +18601,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="182" spans="1:4" ht="14.5">
+    <row r="182" spans="1:5" ht="14.5">
       <c r="A182" s="5" t="s">
         <v>57</v>
       </c>
@@ -18369,8 +18614,11 @@
       <c r="D182" s="5" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" ht="14.5">
+      <c r="E182" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="14.5">
       <c r="A183" s="5" t="s">
         <v>57</v>
       </c>
@@ -18383,8 +18631,11 @@
       <c r="D183" s="5" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" ht="14.5">
+      <c r="E183" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="14.5">
       <c r="A184" s="5" t="s">
         <v>61</v>
       </c>
@@ -18398,7 +18649,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="14.5">
+    <row r="185" spans="1:5" ht="14.5">
       <c r="A185" s="5" t="s">
         <v>83</v>
       </c>
@@ -18412,7 +18663,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="186" spans="1:4" ht="14.5">
+    <row r="186" spans="1:5" ht="14.5">
       <c r="A186" s="5" t="s">
         <v>96</v>
       </c>
@@ -18425,8 +18676,11 @@
       <c r="D186" s="5" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" ht="14.5">
+      <c r="E186" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="14.5">
       <c r="A187" s="5" t="s">
         <v>64</v>
       </c>
@@ -18440,7 +18694,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="188" spans="1:4" ht="14.5">
+    <row r="188" spans="1:5" ht="14.5">
       <c r="A188" s="5" t="s">
         <v>64</v>
       </c>
@@ -18454,7 +18708,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="189" spans="1:4" ht="14.5">
+    <row r="189" spans="1:5" ht="14.5">
       <c r="A189" s="5" t="s">
         <v>73</v>
       </c>
@@ -18467,8 +18721,11 @@
       <c r="D189" s="5" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" ht="14.5">
+      <c r="E189" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="14.5">
       <c r="A190" s="5" t="s">
         <v>57</v>
       </c>
@@ -18481,8 +18738,11 @@
       <c r="D190" s="5" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" ht="14.5">
+      <c r="E190" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="14.5">
       <c r="A191" s="5" t="s">
         <v>61</v>
       </c>
@@ -18496,7 +18756,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="14.5">
+    <row r="192" spans="1:5" ht="14.5">
       <c r="A192" s="5" t="s">
         <v>116</v>
       </c>
@@ -18510,7 +18770,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="14.5">
+    <row r="193" spans="1:5" ht="14.5">
       <c r="A193" s="5" t="s">
         <v>116</v>
       </c>
@@ -18524,7 +18784,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="14.5">
+    <row r="194" spans="1:5" ht="14.5">
       <c r="A194" s="5" t="s">
         <v>116</v>
       </c>
@@ -18538,7 +18798,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="14.5">
+    <row r="195" spans="1:5" ht="14.5">
       <c r="A195" s="5" t="s">
         <v>83</v>
       </c>
@@ -18552,7 +18812,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="196" spans="1:4" ht="14.5">
+    <row r="196" spans="1:5" ht="14.5">
       <c r="A196" s="5" t="s">
         <v>96</v>
       </c>
@@ -18565,8 +18825,11 @@
       <c r="D196" s="5" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" ht="14.5">
+      <c r="E196" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="14.5">
       <c r="A197" s="5" t="s">
         <v>96</v>
       </c>
@@ -18579,8 +18842,11 @@
       <c r="D197" s="5" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" ht="14.5">
+      <c r="E197" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="14.5">
       <c r="A198" s="5" t="s">
         <v>54</v>
       </c>
@@ -18594,7 +18860,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="14.5">
+    <row r="199" spans="1:5" ht="14.5">
       <c r="A199" s="5" t="s">
         <v>57</v>
       </c>
@@ -18607,8 +18873,11 @@
       <c r="D199" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" ht="14.5">
+      <c r="E199" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="14.5">
       <c r="A200" s="5" t="s">
         <v>54</v>
       </c>
@@ -18622,7 +18891,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="14.5">
+    <row r="201" spans="1:5" ht="14.5">
       <c r="A201" s="5" t="s">
         <v>54</v>
       </c>
@@ -18636,7 +18905,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="202" spans="1:4" ht="14.5">
+    <row r="202" spans="1:5" ht="14.5">
       <c r="A202" s="5" t="s">
         <v>247</v>
       </c>
@@ -18650,7 +18919,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="203" spans="1:4" ht="14.5">
+    <row r="203" spans="1:5" ht="14.5">
       <c r="A203" s="5" t="s">
         <v>249</v>
       </c>
@@ -18664,7 +18933,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="204" spans="1:4" ht="14.5">
+    <row r="204" spans="1:5" ht="14.5">
       <c r="A204" s="5" t="s">
         <v>251</v>
       </c>
@@ -18678,7 +18947,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="205" spans="1:4" ht="14.5">
+    <row r="205" spans="1:5" ht="14.5">
       <c r="A205" s="5" t="s">
         <v>251</v>
       </c>
@@ -18692,7 +18961,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="14.5">
+    <row r="206" spans="1:5" ht="14.5">
       <c r="A206" s="5" t="s">
         <v>73</v>
       </c>
@@ -18705,8 +18974,11 @@
       <c r="D206" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" ht="14.5">
+      <c r="E206" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="14.5">
       <c r="A207" s="5" t="s">
         <v>73</v>
       </c>
@@ -18719,8 +18991,11 @@
       <c r="D207" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" ht="14.5">
+      <c r="E207" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="14.5">
       <c r="A208" s="5" t="s">
         <v>73</v>
       </c>
@@ -18733,8 +19008,11 @@
       <c r="D208" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" ht="14.5">
+      <c r="E208" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="14.5">
       <c r="A209" s="5" t="s">
         <v>4</v>
       </c>
@@ -18748,7 +19026,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="14.5">
+    <row r="210" spans="1:5" ht="14.5">
       <c r="A210" s="5" t="s">
         <v>249</v>
       </c>
@@ -18762,7 +19040,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="211" spans="1:4" ht="14.5">
+    <row r="211" spans="1:5" ht="14.5">
       <c r="A211" s="5" t="s">
         <v>247</v>
       </c>
@@ -18776,7 +19054,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="14.5">
+    <row r="212" spans="1:5" ht="14.5">
       <c r="A212" s="5" t="s">
         <v>247</v>
       </c>
@@ -18790,7 +19068,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="14.5">
+    <row r="213" spans="1:5" ht="14.5">
       <c r="A213" s="5" t="s">
         <v>249</v>
       </c>
@@ -18804,7 +19082,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="14.5">
+    <row r="214" spans="1:5" ht="14.5">
       <c r="A214" s="5" t="s">
         <v>259</v>
       </c>
@@ -18818,7 +19096,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="215" spans="1:4" ht="14.5">
+    <row r="215" spans="1:5" ht="14.5">
       <c r="A215" s="5" t="s">
         <v>4</v>
       </c>
@@ -18832,7 +19110,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="14.5">
+    <row r="216" spans="1:5" ht="14.5">
       <c r="A216" s="5" t="s">
         <v>261</v>
       </c>
@@ -18846,7 +19124,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="217" spans="1:4" ht="14.5">
+    <row r="217" spans="1:5" ht="14.5">
       <c r="A217" s="5" t="s">
         <v>247</v>
       </c>
@@ -18860,7 +19138,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="14.5">
+    <row r="218" spans="1:5" ht="14.5">
       <c r="A218" s="5" t="s">
         <v>247</v>
       </c>
@@ -18874,7 +19152,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="14.5">
+    <row r="219" spans="1:5" ht="14.5">
       <c r="A219" s="5" t="s">
         <v>261</v>
       </c>
@@ -18888,7 +19166,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="220" spans="1:4" ht="14.5">
+    <row r="220" spans="1:5" ht="14.5">
       <c r="A220" s="5" t="s">
         <v>57</v>
       </c>
@@ -18901,8 +19179,11 @@
       <c r="D220" s="5" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" ht="14.5">
+      <c r="E220" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="14.5">
       <c r="A221" s="5" t="s">
         <v>57</v>
       </c>
@@ -18915,8 +19196,11 @@
       <c r="D221" s="5" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" ht="14.5">
+      <c r="E221" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="14.5">
       <c r="A222" s="5" t="s">
         <v>57</v>
       </c>
@@ -18929,8 +19213,11 @@
       <c r="D222" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" ht="14.5">
+      <c r="E222" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="14.5">
       <c r="A223" s="5" t="s">
         <v>96</v>
       </c>
@@ -18943,8 +19230,11 @@
       <c r="D223" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" ht="14.5">
+      <c r="E223" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="14.5">
       <c r="A224" s="5" t="s">
         <v>96</v>
       </c>
@@ -18957,8 +19247,11 @@
       <c r="D224" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" ht="14.5">
+      <c r="E224" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="14.5">
       <c r="A225" s="5" t="s">
         <v>96</v>
       </c>
@@ -18971,8 +19264,11 @@
       <c r="D225" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" ht="14.5">
+      <c r="E225" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="14.5">
       <c r="A226" s="5" t="s">
         <v>96</v>
       </c>
@@ -18985,8 +19281,11 @@
       <c r="D226" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" ht="14.5">
+      <c r="E226" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="14.5">
       <c r="A227" s="5" t="s">
         <v>96</v>
       </c>
@@ -18999,8 +19298,11 @@
       <c r="D227" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" ht="14.5">
+      <c r="E227" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="14.5">
       <c r="A228" s="5" t="s">
         <v>57</v>
       </c>
@@ -19013,8 +19315,11 @@
       <c r="D228" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" ht="14.5">
+      <c r="E228" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="14.5">
       <c r="A229" s="5" t="s">
         <v>96</v>
       </c>
@@ -19027,8 +19332,11 @@
       <c r="D229" s="5" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" ht="14.5">
+      <c r="E229" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="14.5">
       <c r="A230" s="5" t="s">
         <v>247</v>
       </c>
@@ -19042,7 +19350,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="231" spans="1:4" ht="14.5">
+    <row r="231" spans="1:5" ht="14.5">
       <c r="A231" s="5" t="s">
         <v>259</v>
       </c>
@@ -19056,7 +19364,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="232" spans="1:4" ht="14.5">
+    <row r="232" spans="1:5" ht="14.5">
       <c r="A232" s="5" t="s">
         <v>107</v>
       </c>
@@ -19069,8 +19377,11 @@
       <c r="D232" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" ht="14.5">
+      <c r="E232" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="14.5">
       <c r="A233" s="5" t="s">
         <v>107</v>
       </c>
@@ -19083,8 +19394,11 @@
       <c r="D233" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" ht="14.5">
+      <c r="E233" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="14.5">
       <c r="A234" s="5" t="s">
         <v>107</v>
       </c>
@@ -19097,8 +19411,11 @@
       <c r="D234" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" ht="14.5">
+      <c r="E234" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="14.5">
       <c r="A235" s="5" t="s">
         <v>107</v>
       </c>
@@ -19111,8 +19428,11 @@
       <c r="D235" s="5" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" ht="14.5">
+      <c r="E235" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="14.5">
       <c r="A236" s="5" t="s">
         <v>251</v>
       </c>
@@ -19126,7 +19446,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="14.5">
+    <row r="237" spans="1:5" ht="14.5">
       <c r="A237" s="5" t="s">
         <v>57</v>
       </c>
@@ -19139,8 +19459,11 @@
       <c r="D237" s="5" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" ht="14.5">
+      <c r="E237" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="14.5">
       <c r="A238" s="5" t="s">
         <v>57</v>
       </c>
@@ -19153,8 +19476,11 @@
       <c r="D238" s="5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" ht="14.5">
+      <c r="E238" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="14.5">
       <c r="A239" s="5" t="s">
         <v>57</v>
       </c>
@@ -19167,8 +19493,11 @@
       <c r="D239" s="5" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" ht="14.5">
+      <c r="E239" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="14.5">
       <c r="A240" s="5" t="s">
         <v>249</v>
       </c>
@@ -19182,7 +19511,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="14.5">
+    <row r="241" spans="1:5" ht="14.5">
       <c r="A241" s="5" t="s">
         <v>261</v>
       </c>
@@ -19196,7 +19525,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="242" spans="1:4" ht="14.5">
+    <row r="242" spans="1:5" ht="14.5">
       <c r="A242" s="5" t="s">
         <v>251</v>
       </c>
@@ -19210,7 +19539,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="243" spans="1:4" ht="14.5">
+    <row r="243" spans="1:5" ht="14.5">
       <c r="A243" s="5" t="s">
         <v>251</v>
       </c>
@@ -19224,7 +19553,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="244" spans="1:4" ht="14.5">
+    <row r="244" spans="1:5" ht="14.5">
       <c r="A244" s="5" t="s">
         <v>261</v>
       </c>
@@ -19238,7 +19567,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="245" spans="1:4" ht="14.5">
+    <row r="245" spans="1:5" ht="14.5">
       <c r="A245" s="5" t="s">
         <v>249</v>
       </c>
@@ -19252,7 +19581,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="246" spans="1:4" ht="14.5">
+    <row r="246" spans="1:5" ht="14.5">
       <c r="A246" s="5" t="s">
         <v>247</v>
       </c>
@@ -19266,7 +19595,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="247" spans="1:4" ht="14.5">
+    <row r="247" spans="1:5" ht="14.5">
       <c r="A247" s="5" t="s">
         <v>96</v>
       </c>
@@ -19279,8 +19608,11 @@
       <c r="D247" s="5" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" ht="14.5">
+      <c r="E247" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="14.5">
       <c r="A248" s="5" t="s">
         <v>73</v>
       </c>
@@ -19293,8 +19625,11 @@
       <c r="D248" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" ht="14.5">
+      <c r="E248" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="14.5">
       <c r="A249" s="5" t="s">
         <v>247</v>
       </c>
@@ -19308,7 +19643,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="14.5">
+    <row r="250" spans="1:5" ht="14.5">
       <c r="A250" s="5" t="s">
         <v>247</v>
       </c>
@@ -19322,7 +19657,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="14.5">
+    <row r="251" spans="1:5" ht="14.5">
       <c r="A251" s="5" t="s">
         <v>247</v>
       </c>
@@ -19336,7 +19671,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="14.5">
+    <row r="252" spans="1:5" ht="14.5">
       <c r="A252" s="5" t="s">
         <v>247</v>
       </c>
@@ -19350,7 +19685,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="14.5">
+    <row r="253" spans="1:5" ht="14.5">
       <c r="A253" s="5" t="s">
         <v>247</v>
       </c>
@@ -19364,7 +19699,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="14.5">
+    <row r="254" spans="1:5" ht="14.5">
       <c r="A254" s="5" t="s">
         <v>247</v>
       </c>
@@ -19378,7 +19713,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="14.5">
+    <row r="255" spans="1:5" ht="14.5">
       <c r="A255" s="5" t="s">
         <v>73</v>
       </c>
@@ -19391,8 +19726,11 @@
       <c r="D255" s="5" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" ht="14.5">
+      <c r="E255" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="14.5">
       <c r="A256" s="5" t="s">
         <v>73</v>
       </c>
@@ -19405,8 +19743,11 @@
       <c r="D256" s="5" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" ht="14.5">
+      <c r="E256" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="14.5">
       <c r="A257" s="5" t="s">
         <v>73</v>
       </c>
@@ -19419,8 +19760,11 @@
       <c r="D257" s="5" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" ht="14.5">
+      <c r="E257" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="14.5">
       <c r="A258" s="5" t="s">
         <v>73</v>
       </c>
@@ -19433,8 +19777,11 @@
       <c r="D258" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" ht="14.5">
+      <c r="E258" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="14.5">
       <c r="A259" s="5" t="s">
         <v>73</v>
       </c>
@@ -19447,8 +19794,11 @@
       <c r="D259" s="5" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" ht="14.5">
+      <c r="E259" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="14.5">
       <c r="A260" s="5" t="s">
         <v>73</v>
       </c>
@@ -19461,8 +19811,11 @@
       <c r="D260" s="5" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" ht="14.5">
+      <c r="E260" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="14.5">
       <c r="A261" s="5" t="s">
         <v>73</v>
       </c>
@@ -19475,8 +19828,11 @@
       <c r="D261" s="5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" ht="14.5">
+      <c r="E261" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="14.5">
       <c r="A262" s="5" t="s">
         <v>73</v>
       </c>
@@ -19489,8 +19845,11 @@
       <c r="D262" s="5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" ht="14.5">
+      <c r="E262" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="14.5">
       <c r="A263" s="5" t="s">
         <v>73</v>
       </c>
@@ -19503,8 +19862,11 @@
       <c r="D263" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" ht="14.5">
+      <c r="E263" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="14.5">
       <c r="A264" s="5" t="s">
         <v>73</v>
       </c>
@@ -19517,8 +19879,11 @@
       <c r="D264" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" ht="14.5">
+      <c r="E264" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="14.5">
       <c r="A265" s="5" t="s">
         <v>73</v>
       </c>
@@ -19531,8 +19896,11 @@
       <c r="D265" s="5" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" ht="14.5">
+      <c r="E265" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="14.5">
       <c r="A266" s="5" t="s">
         <v>261</v>
       </c>
@@ -19546,7 +19914,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="14.5">
+    <row r="267" spans="1:5" ht="14.5">
       <c r="A267" s="5" t="s">
         <v>261</v>
       </c>
@@ -19560,7 +19928,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="268" spans="1:4" ht="14.5">
+    <row r="268" spans="1:5" ht="14.5">
       <c r="A268" s="5" t="s">
         <v>261</v>
       </c>
@@ -19574,7 +19942,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="269" spans="1:4" ht="14.5">
+    <row r="269" spans="1:5" ht="14.5">
       <c r="A269" s="5" t="s">
         <v>261</v>
       </c>
@@ -19588,7 +19956,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="270" spans="1:4" ht="14.5">
+    <row r="270" spans="1:5" ht="14.5">
       <c r="A270" s="5" t="s">
         <v>261</v>
       </c>
@@ -19602,7 +19970,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="271" spans="1:4" ht="14.5">
+    <row r="271" spans="1:5" ht="14.5">
       <c r="A271" s="5" t="s">
         <v>249</v>
       </c>
@@ -19616,7 +19984,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="272" spans="1:4" ht="14.5">
+    <row r="272" spans="1:5" ht="14.5">
       <c r="A272" s="5" t="s">
         <v>261</v>
       </c>
@@ -19630,7 +19998,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="14.5">
+    <row r="273" spans="1:5" ht="14.5">
       <c r="A273" s="5" t="s">
         <v>247</v>
       </c>
@@ -19644,7 +20012,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="14.5">
+    <row r="274" spans="1:5" ht="14.5">
       <c r="A274" s="5" t="s">
         <v>247</v>
       </c>
@@ -19658,7 +20026,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="14.5">
+    <row r="275" spans="1:5" ht="14.5">
       <c r="A275" s="5" t="s">
         <v>247</v>
       </c>
@@ -19672,7 +20040,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="14.5">
+    <row r="276" spans="1:5" ht="14.5">
       <c r="A276" s="5" t="s">
         <v>247</v>
       </c>
@@ -19686,7 +20054,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="14.5">
+    <row r="277" spans="1:5" ht="14.5">
       <c r="A277" s="5" t="s">
         <v>251</v>
       </c>
@@ -19700,7 +20068,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="14.5">
+    <row r="278" spans="1:5" ht="14.5">
       <c r="A278" s="5" t="s">
         <v>247</v>
       </c>
@@ -19714,7 +20082,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="14.5">
+    <row r="279" spans="1:5" ht="14.5">
       <c r="A279" s="5" t="s">
         <v>247</v>
       </c>
@@ -19728,7 +20096,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="14.5">
+    <row r="280" spans="1:5" ht="14.5">
       <c r="A280" s="5" t="s">
         <v>247</v>
       </c>
@@ -19742,7 +20110,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="14.5">
+    <row r="281" spans="1:5" ht="14.5">
       <c r="A281" s="5" t="s">
         <v>4</v>
       </c>
@@ -19756,7 +20124,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="14.5">
+    <row r="282" spans="1:5" ht="14.5">
       <c r="A282" s="5" t="s">
         <v>57</v>
       </c>
@@ -19769,8 +20137,11 @@
       <c r="D282" s="5" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" ht="14.5">
+      <c r="E282" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="14.5">
       <c r="A283" s="5" t="s">
         <v>73</v>
       </c>
@@ -19783,8 +20154,11 @@
       <c r="D283" s="5" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" ht="14.5">
+      <c r="E283" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="14.5">
       <c r="A284" s="5" t="s">
         <v>4</v>
       </c>
@@ -19798,7 +20172,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="14.5">
+    <row r="285" spans="1:5" ht="14.5">
       <c r="A285" s="5" t="s">
         <v>57</v>
       </c>
@@ -19811,8 +20185,11 @@
       <c r="D285" s="5" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" ht="14.5">
+      <c r="E285" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="14.5">
       <c r="A286" s="5" t="s">
         <v>96</v>
       </c>
@@ -19825,8 +20202,11 @@
       <c r="D286" s="5" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" ht="14.5">
+      <c r="E286" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="14.5">
       <c r="A287" s="5" t="s">
         <v>96</v>
       </c>
@@ -19839,8 +20219,11 @@
       <c r="D287" s="5" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" ht="14.5">
+      <c r="E287" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="14.5">
       <c r="A288" s="5" t="s">
         <v>96</v>
       </c>
@@ -19853,8 +20236,11 @@
       <c r="D288" s="5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" ht="14.5">
+      <c r="E288" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="14.5">
       <c r="A289" s="5" t="s">
         <v>96</v>
       </c>
@@ -19867,8 +20253,11 @@
       <c r="D289" s="5" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" ht="14.5">
+      <c r="E289" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="14.5">
       <c r="A290" s="5" t="s">
         <v>249</v>
       </c>
@@ -19882,7 +20271,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="14.5">
+    <row r="291" spans="1:5" ht="14.5">
       <c r="A291" s="5" t="s">
         <v>249</v>
       </c>
@@ -19896,7 +20285,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="14.5">
+    <row r="292" spans="1:5" ht="14.5">
       <c r="A292" s="5" t="s">
         <v>249</v>
       </c>
@@ -19910,7 +20299,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="14.5">
+    <row r="293" spans="1:5" ht="14.5">
       <c r="A293" s="5" t="s">
         <v>249</v>
       </c>
@@ -19924,7 +20313,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="14.5">
+    <row r="294" spans="1:5" ht="14.5">
       <c r="A294" s="5" t="s">
         <v>249</v>
       </c>
@@ -19938,7 +20327,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="14.5">
+    <row r="295" spans="1:5" ht="14.5">
       <c r="A295" s="5" t="s">
         <v>261</v>
       </c>
@@ -19952,7 +20341,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="14.5">
+    <row r="296" spans="1:5" ht="14.5">
       <c r="A296" s="5" t="s">
         <v>57</v>
       </c>
@@ -19965,8 +20354,11 @@
       <c r="D296" s="5" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" ht="14.5">
+      <c r="E296" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="14.5">
       <c r="A297" s="5" t="s">
         <v>57</v>
       </c>
@@ -19979,8 +20371,11 @@
       <c r="D297" s="5" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" ht="14.5">
+      <c r="E297" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="14.5">
       <c r="A298" s="5" t="s">
         <v>57</v>
       </c>
@@ -19993,8 +20388,11 @@
       <c r="D298" s="5" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" ht="14.5">
+      <c r="E298" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="14.5">
       <c r="A299" s="5" t="s">
         <v>249</v>
       </c>
@@ -20008,7 +20406,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="14.5">
+    <row r="300" spans="1:5" ht="14.5">
       <c r="A300" s="5" t="s">
         <v>96</v>
       </c>
@@ -20021,8 +20419,11 @@
       <c r="D300" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" ht="14.5">
+      <c r="E300" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="14.5">
       <c r="A301" s="5" t="s">
         <v>249</v>
       </c>
@@ -20036,7 +20437,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="14.5">
+    <row r="302" spans="1:5" ht="14.5">
       <c r="A302" s="5" t="s">
         <v>249</v>
       </c>
@@ -20050,7 +20451,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="14.5">
+    <row r="303" spans="1:5" ht="14.5">
       <c r="A303" s="5" t="s">
         <v>249</v>
       </c>
@@ -20064,7 +20465,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="14.5">
+    <row r="304" spans="1:5" ht="14.5">
       <c r="A304" s="5" t="s">
         <v>247</v>
       </c>
@@ -20078,7 +20479,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="14.5">
+    <row r="305" spans="1:5" ht="14.5">
       <c r="A305" s="5" t="s">
         <v>247</v>
       </c>
@@ -20092,7 +20493,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="14.5">
+    <row r="306" spans="1:5" ht="14.5">
       <c r="A306" s="5" t="s">
         <v>249</v>
       </c>
@@ -20106,7 +20507,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="14.5">
+    <row r="307" spans="1:5" ht="14.5">
       <c r="A307" s="5" t="s">
         <v>249</v>
       </c>
@@ -20120,7 +20521,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="14.5">
+    <row r="308" spans="1:5" ht="14.5">
       <c r="A308" s="5" t="s">
         <v>249</v>
       </c>
@@ -20134,7 +20535,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="14.5">
+    <row r="309" spans="1:5" ht="14.5">
       <c r="A309" s="5" t="s">
         <v>261</v>
       </c>
@@ -20148,7 +20549,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="14.5">
+    <row r="310" spans="1:5" ht="14.5">
       <c r="A310" s="5" t="s">
         <v>261</v>
       </c>
@@ -20162,7 +20563,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="14.5">
+    <row r="311" spans="1:5" ht="14.5">
       <c r="A311" s="5" t="s">
         <v>261</v>
       </c>
@@ -20176,7 +20577,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="14.5">
+    <row r="312" spans="1:5" ht="14.5">
       <c r="A312" s="5" t="s">
         <v>261</v>
       </c>
@@ -20190,7 +20591,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="14.5">
+    <row r="313" spans="1:5" ht="14.5">
       <c r="A313" s="5" t="s">
         <v>261</v>
       </c>
@@ -20204,7 +20605,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="14.5">
+    <row r="314" spans="1:5" ht="14.5">
       <c r="A314" s="5" t="s">
         <v>57</v>
       </c>
@@ -20217,8 +20618,11 @@
       <c r="D314" s="5" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" ht="14.5">
+      <c r="E314" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="14.5">
       <c r="A315" s="5" t="s">
         <v>96</v>
       </c>
@@ -20231,8 +20635,11 @@
       <c r="D315" s="5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" ht="14.5">
+      <c r="E315" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="14.5">
       <c r="A316" s="5" t="s">
         <v>96</v>
       </c>
@@ -20245,8 +20652,11 @@
       <c r="D316" s="5" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" ht="14.5">
+      <c r="E316" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="14.5">
       <c r="A317" s="5" t="s">
         <v>251</v>
       </c>
@@ -20260,7 +20670,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="14.5">
+    <row r="318" spans="1:5" ht="14.5">
       <c r="A318" s="5" t="s">
         <v>251</v>
       </c>
@@ -20274,7 +20684,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="14.5">
+    <row r="319" spans="1:5" ht="14.5">
       <c r="A319" s="5" t="s">
         <v>96</v>
       </c>
@@ -20287,8 +20697,11 @@
       <c r="D319" s="5" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" ht="14.5">
+      <c r="E319" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="14.5">
       <c r="A320" s="5" t="s">
         <v>96</v>
       </c>
@@ -20301,8 +20714,11 @@
       <c r="D320" s="5" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" ht="14.5">
+      <c r="E320" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="14.5">
       <c r="A321" s="5" t="s">
         <v>4</v>
       </c>
@@ -20316,7 +20732,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="14.5">
+    <row r="322" spans="1:5" ht="14.5">
       <c r="A322" s="5" t="s">
         <v>247</v>
       </c>
@@ -20330,7 +20746,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="14.5">
+    <row r="323" spans="1:5" ht="14.5">
       <c r="A323" s="5" t="s">
         <v>247</v>
       </c>
@@ -20344,7 +20760,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="14.5">
+    <row r="324" spans="1:5" ht="14.5">
       <c r="A324" s="5" t="s">
         <v>247</v>
       </c>
@@ -20358,7 +20774,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="14.5">
+    <row r="325" spans="1:5" ht="14.5">
       <c r="A325" s="5" t="s">
         <v>73</v>
       </c>
@@ -20371,8 +20787,11 @@
       <c r="D325" s="5" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" ht="14.5">
+      <c r="E325" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="14.5">
       <c r="A326" s="5" t="s">
         <v>73</v>
       </c>
@@ -20385,8 +20804,11 @@
       <c r="D326" s="5" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" ht="14.5">
+      <c r="E326" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="14.5">
       <c r="A327" s="5" t="s">
         <v>73</v>
       </c>
@@ -20399,8 +20821,11 @@
       <c r="D327" s="5" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" ht="14.5">
+      <c r="E327" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="14.5">
       <c r="A328" s="5" t="s">
         <v>96</v>
       </c>
@@ -20413,8 +20838,11 @@
       <c r="D328" s="5" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" ht="14.5">
+      <c r="E328" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="14.5">
       <c r="A329" s="5" t="s">
         <v>73</v>
       </c>
@@ -20427,8 +20855,11 @@
       <c r="D329" s="5" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" ht="14.5">
+      <c r="E329" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="14.5">
       <c r="A330" s="5" t="s">
         <v>73</v>
       </c>
@@ -20441,8 +20872,11 @@
       <c r="D330" s="5" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" ht="14.5">
+      <c r="E330" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="14.5">
       <c r="A331" s="5" t="s">
         <v>73</v>
       </c>
@@ -20455,8 +20889,11 @@
       <c r="D331" s="5" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" ht="14.5">
+      <c r="E331" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="14.5">
       <c r="A332" s="5" t="s">
         <v>107</v>
       </c>
@@ -20469,8 +20906,11 @@
       <c r="D332" s="5" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" ht="14.5">
+      <c r="E332" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="14.5">
       <c r="A333" s="5" t="s">
         <v>107</v>
       </c>
@@ -20483,8 +20923,11 @@
       <c r="D333" s="5" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" ht="14.5">
+      <c r="E333" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="14.5">
       <c r="A334" s="5" t="s">
         <v>107</v>
       </c>
@@ -20497,8 +20940,11 @@
       <c r="D334" s="5" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" ht="14.5">
+      <c r="E334" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="14.5">
       <c r="A335" s="5" t="s">
         <v>107</v>
       </c>
@@ -20511,8 +20957,11 @@
       <c r="D335" s="5" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" ht="14.5">
+      <c r="E335" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="14.5">
       <c r="A336" s="5" t="s">
         <v>107</v>
       </c>
@@ -20525,8 +20974,11 @@
       <c r="D336" s="5" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" ht="14.5">
+      <c r="E336" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="14.5">
       <c r="A337" s="5" t="s">
         <v>107</v>
       </c>
@@ -20539,8 +20991,11 @@
       <c r="D337" s="5" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" ht="14.5">
+      <c r="E337" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="14.5">
       <c r="A338" s="5" t="s">
         <v>107</v>
       </c>
@@ -20553,8 +21008,11 @@
       <c r="D338" s="5" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" ht="14.5">
+      <c r="E338" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" ht="14.5">
       <c r="A339" s="5" t="s">
         <v>107</v>
       </c>
@@ -20567,8 +21025,11 @@
       <c r="D339" s="5" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" ht="14.5">
+      <c r="E339" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" ht="14.5">
       <c r="A340" s="5" t="s">
         <v>73</v>
       </c>
@@ -20581,8 +21042,11 @@
       <c r="D340" s="5" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" ht="14.5">
+      <c r="E340" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="14.5">
       <c r="A341" s="5" t="s">
         <v>4</v>
       </c>
@@ -20596,7 +21060,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="14.5">
+    <row r="342" spans="1:5" ht="14.5">
       <c r="A342" s="5" t="s">
         <v>107</v>
       </c>
@@ -20609,8 +21073,11 @@
       <c r="D342" s="5" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" ht="14.5">
+      <c r="E342" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" ht="14.5">
       <c r="A343" s="5" t="s">
         <v>107</v>
       </c>
@@ -20623,8 +21090,11 @@
       <c r="D343" s="5" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" ht="14.5">
+      <c r="E343" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" ht="14.5">
       <c r="A344" s="5" t="s">
         <v>107</v>
       </c>
@@ -20637,8 +21107,11 @@
       <c r="D344" s="5" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" ht="14.5">
+      <c r="E344" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" ht="14.5">
       <c r="A345" s="5" t="s">
         <v>107</v>
       </c>
@@ -20651,8 +21124,11 @@
       <c r="D345" s="5" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" ht="14.5">
+      <c r="E345" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" ht="14.5">
       <c r="A346" s="5" t="s">
         <v>4</v>
       </c>
@@ -20666,7 +21142,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="14.5">
+    <row r="347" spans="1:5" ht="14.5">
       <c r="A347" s="5" t="s">
         <v>259</v>
       </c>
@@ -20680,7 +21156,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="14.5">
+    <row r="348" spans="1:5" ht="14.5">
       <c r="A348" s="5" t="s">
         <v>73</v>
       </c>
@@ -20693,8 +21169,11 @@
       <c r="D348" s="5" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" ht="14.5">
+      <c r="E348" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" ht="14.5">
       <c r="A349" s="5" t="s">
         <v>73</v>
       </c>
@@ -20707,8 +21186,11 @@
       <c r="D349" s="5" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" ht="14.5">
+      <c r="E349" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" ht="14.5">
       <c r="A350" s="5" t="s">
         <v>4</v>
       </c>
@@ -20722,7 +21204,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="14.5">
+    <row r="351" spans="1:5" ht="14.5">
       <c r="A351" s="5" t="s">
         <v>4</v>
       </c>
@@ -20736,7 +21218,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="14.5">
+    <row r="352" spans="1:5" ht="14.5">
       <c r="A352" s="5" t="s">
         <v>259</v>
       </c>
@@ -20750,7 +21232,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="14.5">
+    <row r="353" spans="1:5" ht="14.5">
       <c r="A353" s="5" t="s">
         <v>259</v>
       </c>
@@ -20764,7 +21246,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="14.5">
+    <row r="354" spans="1:5" ht="14.5">
       <c r="A354" s="5" t="s">
         <v>259</v>
       </c>
@@ -20778,7 +21260,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="14.5">
+    <row r="355" spans="1:5" ht="14.5">
       <c r="A355" s="5" t="s">
         <v>259</v>
       </c>
@@ -20792,7 +21274,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="14.5">
+    <row r="356" spans="1:5" ht="14.5">
       <c r="A356" s="5" t="s">
         <v>64</v>
       </c>
@@ -20806,7 +21288,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="14.5">
+    <row r="357" spans="1:5" ht="14.5">
       <c r="A357" s="5" t="s">
         <v>64</v>
       </c>
@@ -20820,7 +21302,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="14.5">
+    <row r="358" spans="1:5" ht="14.5">
       <c r="A358" s="5" t="s">
         <v>259</v>
       </c>
@@ -20834,7 +21316,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="14.5">
+    <row r="359" spans="1:5" ht="14.5">
       <c r="A359" s="5" t="s">
         <v>64</v>
       </c>
@@ -20848,7 +21330,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="14.5">
+    <row r="360" spans="1:5" ht="14.5">
       <c r="A360" s="5" t="s">
         <v>64</v>
       </c>
@@ -20862,7 +21344,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="14.5">
+    <row r="361" spans="1:5" ht="14.5">
       <c r="A361" s="5" t="s">
         <v>259</v>
       </c>
@@ -20876,7 +21358,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="14.5">
+    <row r="362" spans="1:5" ht="14.5">
       <c r="A362" s="5" t="s">
         <v>259</v>
       </c>
@@ -20890,7 +21372,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="14.5">
+    <row r="363" spans="1:5" ht="14.5">
       <c r="A363" s="5" t="s">
         <v>261</v>
       </c>
@@ -20904,7 +21386,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="14.5">
+    <row r="364" spans="1:5" ht="14.5">
       <c r="A364" s="5" t="s">
         <v>96</v>
       </c>
@@ -20917,8 +21399,11 @@
       <c r="D364" s="5" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" ht="14.5">
+      <c r="E364" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" ht="14.5">
       <c r="A365" s="5" t="s">
         <v>261</v>
       </c>
@@ -20932,7 +21417,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="14.5">
+    <row r="366" spans="1:5" ht="14.5">
       <c r="A366" s="5" t="s">
         <v>261</v>
       </c>
@@ -20946,7 +21431,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="14.5">
+    <row r="367" spans="1:5" ht="14.5">
       <c r="A367" s="5" t="s">
         <v>261</v>
       </c>
@@ -20960,7 +21445,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="14.5">
+    <row r="368" spans="1:5" ht="14.5">
       <c r="A368" s="5" t="s">
         <v>261</v>
       </c>
@@ -20974,7 +21459,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="14.5">
+    <row r="369" spans="1:5" ht="14.5">
       <c r="A369" s="5" t="s">
         <v>261</v>
       </c>
@@ -20988,7 +21473,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="14.5">
+    <row r="370" spans="1:5" ht="14.5">
       <c r="A370" s="5" t="s">
         <v>261</v>
       </c>
@@ -21002,7 +21487,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="14.5">
+    <row r="371" spans="1:5" ht="14.5">
       <c r="A371" s="5" t="s">
         <v>261</v>
       </c>
@@ -21016,7 +21501,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="14.5">
+    <row r="372" spans="1:5" ht="14.5">
       <c r="A372" s="5" t="s">
         <v>57</v>
       </c>
@@ -21029,8 +21514,11 @@
       <c r="D372" s="5" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" ht="14.5">
+      <c r="E372" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" ht="14.5">
       <c r="A373" s="5" t="s">
         <v>261</v>
       </c>
@@ -21044,7 +21532,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="374" spans="1:4" ht="14.5">
+    <row r="374" spans="1:5" ht="14.5">
       <c r="A374" s="5" t="s">
         <v>261</v>
       </c>
@@ -21058,7 +21546,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="375" spans="1:4" ht="14.5">
+    <row r="375" spans="1:5" ht="14.5">
       <c r="A375" s="5" t="s">
         <v>261</v>
       </c>
@@ -21072,7 +21560,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="376" spans="1:4" ht="14.5">
+    <row r="376" spans="1:5" ht="14.5">
       <c r="A376" s="5" t="s">
         <v>57</v>
       </c>
@@ -21085,8 +21573,11 @@
       <c r="D376" s="5" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" ht="14.5">
+      <c r="E376" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" ht="14.5">
       <c r="A377" s="5" t="s">
         <v>57</v>
       </c>
@@ -21099,8 +21590,11 @@
       <c r="D377" s="5" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" ht="14.5">
+      <c r="E377" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" ht="14.5">
       <c r="A378" s="5" t="s">
         <v>261</v>
       </c>
@@ -21114,7 +21608,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="14.5">
+    <row r="379" spans="1:5" ht="14.5">
       <c r="A379" s="5" t="s">
         <v>96</v>
       </c>
@@ -21127,8 +21621,11 @@
       <c r="D379" s="5" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" ht="14.5">
+      <c r="E379" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" ht="14.5">
       <c r="A380" s="5" t="s">
         <v>259</v>
       </c>
@@ -21142,7 +21639,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="14.5">
+    <row r="381" spans="1:5" ht="14.5">
       <c r="A381" s="5" t="s">
         <v>73</v>
       </c>
@@ -21155,8 +21652,11 @@
       <c r="D381" s="5" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" ht="14.5">
+      <c r="E381" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" ht="14.5">
       <c r="A382" s="5" t="s">
         <v>57</v>
       </c>
@@ -21169,8 +21669,11 @@
       <c r="D382" s="5" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" ht="14.5">
+      <c r="E382" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" ht="14.5">
       <c r="A383" s="5" t="s">
         <v>249</v>
       </c>
@@ -21184,7 +21687,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="14.5">
+    <row r="384" spans="1:5" ht="14.5">
       <c r="A384" s="5" t="s">
         <v>249</v>
       </c>
@@ -21198,7 +21701,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="14.5">
+    <row r="385" spans="1:5" ht="14.5">
       <c r="A385" s="5" t="s">
         <v>259</v>
       </c>
@@ -21212,7 +21715,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="14.5">
+    <row r="386" spans="1:5" ht="14.5">
       <c r="A386" s="5" t="s">
         <v>249</v>
       </c>
@@ -21226,7 +21729,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="14.5">
+    <row r="387" spans="1:5" ht="14.5">
       <c r="A387" s="5" t="s">
         <v>96</v>
       </c>
@@ -21239,8 +21742,11 @@
       <c r="D387" s="5" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" ht="14.5">
+      <c r="E387" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" ht="14.5">
       <c r="A388" s="5" t="s">
         <v>96</v>
       </c>
@@ -21253,8 +21759,11 @@
       <c r="D388" s="5" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" ht="14.5">
+      <c r="E388" s="47" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" ht="14.5">
       <c r="A389" s="5" t="s">
         <v>349</v>
       </c>
@@ -21268,7 +21777,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="14.5">
+    <row r="390" spans="1:5" ht="14.5">
       <c r="A390" s="5" t="s">
         <v>349</v>
       </c>
@@ -21282,7 +21791,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="14.5">
+    <row r="391" spans="1:5" ht="14.5">
       <c r="A391" s="5" t="s">
         <v>349</v>
       </c>
@@ -21296,7 +21805,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="392" spans="1:4" ht="14.5">
+    <row r="392" spans="1:5" ht="14.5">
       <c r="A392" s="5" t="s">
         <v>349</v>
       </c>
@@ -21310,7 +21819,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="393" spans="1:4" ht="14.5">
+    <row r="393" spans="1:5" ht="14.5">
       <c r="A393" s="5" t="s">
         <v>349</v>
       </c>
@@ -21324,7 +21833,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="14.5">
+    <row r="394" spans="1:5" ht="14.5">
       <c r="A394" s="5" t="s">
         <v>349</v>
       </c>
@@ -21338,7 +21847,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="395" spans="1:4" ht="14.5">
+    <row r="395" spans="1:5" ht="14.5">
       <c r="A395" s="5" t="s">
         <v>349</v>
       </c>
@@ -21352,7 +21861,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="14.5">
+    <row r="396" spans="1:5" ht="14.5">
       <c r="A396" s="5" t="s">
         <v>349</v>
       </c>
@@ -21366,7 +21875,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="14.5">
+    <row r="397" spans="1:5" ht="14.5">
       <c r="A397" s="5" t="s">
         <v>349</v>
       </c>
@@ -21380,7 +21889,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="14.5">
+    <row r="398" spans="1:5" ht="14.5">
       <c r="A398" s="5" t="s">
         <v>349</v>
       </c>
@@ -21394,7 +21903,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="14.5">
+    <row r="399" spans="1:5" ht="14.5">
       <c r="A399" s="5" t="s">
         <v>361</v>
       </c>
@@ -21408,7 +21917,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="14.5">
+    <row r="400" spans="1:5" ht="14.5">
       <c r="A400" s="5" t="s">
         <v>349</v>
       </c>
@@ -21553,6 +22062,7 @@
     <mergeCell ref="J11:K11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21560,8 +22070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03AF2BDE-5A6B-4720-9D3B-8CA6CDDA1826}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="B28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -21617,13 +22127,13 @@
       <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="36" t="s">
         <v>562</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:5" ht="174">
       <c r="A5" s="14" t="s">
@@ -21717,7 +22227,7 @@
       <c r="B10" s="23" t="s">
         <v>563</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="44" t="s">
         <v>599</v>
       </c>
       <c r="D10" s="23" t="s">
@@ -21796,13 +22306,13 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="36" t="s">
         <v>503</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
     </row>
     <row r="16" spans="1:5" ht="174">
       <c r="A16" s="14" t="s">
@@ -21975,22 +22485,22 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="73.5" customHeight="1">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="39" t="s">
         <v>589</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="42"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="36" t="s">
         <v>564</v>
       </c>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="38"/>
     </row>
     <row r="28" spans="1:5" ht="174">
       <c r="A28" s="14" t="s">
@@ -22010,19 +22520,19 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="36" t="s">
         <v>568</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="39"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="38"/>
     </row>
     <row r="31" spans="1:5" ht="174">
       <c r="A31" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="46" t="s">
         <v>565</v>
       </c>
       <c r="C31" s="27" t="s">
@@ -22036,13 +22546,13 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="36" t="s">
         <v>569</v>
       </c>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="39"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="135" customHeight="1">
       <c r="A34" s="14" t="s">
@@ -22062,28 +22572,28 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="36" t="s">
         <v>572</v>
       </c>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="39"/>
-    </row>
-    <row r="37" spans="1:5" s="34" customFormat="1" ht="174">
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="38"/>
+    </row>
+    <row r="37" spans="1:5" s="33" customFormat="1" ht="174">
       <c r="A37" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="45" t="s">
         <v>573</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="30" t="s">
         <v>574</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D37" s="31" t="s">
         <v>561</v>
       </c>
-      <c r="E37" s="33" t="s">
+      <c r="E37" s="32" t="s">
         <v>515</v>
       </c>
     </row>
@@ -22134,42 +22644,42 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="43" t="s">
         <v>377</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="42" t="s">
         <v>379</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="42" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="44"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="44"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="44"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="6"/>
@@ -22182,10 +22692,10 @@
       <c r="B8" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="42" t="s">
         <v>384</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="42" t="s">
         <v>385</v>
       </c>
     </row>
@@ -22194,22 +22704,22 @@
       <c r="B9" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="6"/>
       <c r="B10" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="6"/>
@@ -22224,10 +22734,10 @@
       <c r="B13" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="42" t="s">
         <v>390</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="42" t="s">
         <v>391</v>
       </c>
     </row>
@@ -22236,20 +22746,20 @@
       <c r="B14" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="6"/>
@@ -22264,10 +22774,10 @@
       <c r="B18" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="42" t="s">
         <v>393</v>
       </c>
-      <c r="D18" s="43" t="s">
+      <c r="D18" s="42" t="s">
         <v>394</v>
       </c>
     </row>
@@ -22276,22 +22786,22 @@
       <c r="B19" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="6"/>
@@ -22304,10 +22814,10 @@
       <c r="B23" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="42" t="s">
         <v>398</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="42" t="s">
         <v>399</v>
       </c>
     </row>
@@ -22316,20 +22826,20 @@
       <c r="B24" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="6"/>
@@ -22340,10 +22850,10 @@
     <row r="28" spans="1:4">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="42" t="s">
         <v>401</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="42" t="s">
         <v>402</v>
       </c>
     </row>
@@ -22352,24 +22862,24 @@
       <c r="B29" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="6"/>
@@ -22382,30 +22892,30 @@
       <c r="B33" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C33" s="43" t="s">
+      <c r="C33" s="42" t="s">
         <v>403</v>
       </c>
-      <c r="D33" s="43" t="s">
+      <c r="D33" s="42" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="6"/>
@@ -22418,10 +22928,10 @@
       <c r="B38" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="42" t="s">
         <v>405</v>
       </c>
-      <c r="D38" s="43" t="s">
+      <c r="D38" s="42" t="s">
         <v>406</v>
       </c>
     </row>
@@ -22430,22 +22940,22 @@
       <c r="B39" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="43"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="6"/>
       <c r="B40" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="43"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="6"/>
@@ -22458,10 +22968,10 @@
       <c r="B43" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="C43" s="43" t="s">
+      <c r="C43" s="42" t="s">
         <v>409</v>
       </c>
-      <c r="D43" s="43" t="s">
+      <c r="D43" s="42" t="s">
         <v>410</v>
       </c>
     </row>
@@ -22470,20 +22980,20 @@
       <c r="B44" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="6"/>
@@ -22496,10 +23006,10 @@
       <c r="B48" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C48" s="43" t="s">
+      <c r="C48" s="42" t="s">
         <v>411</v>
       </c>
-      <c r="D48" s="43" t="s">
+      <c r="D48" s="42" t="s">
         <v>412</v>
       </c>
     </row>
@@ -22508,22 +23018,22 @@
       <c r="B49" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="6"/>
       <c r="B50" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C50" s="43"/>
-      <c r="D50" s="43"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="6"/>
@@ -22534,10 +23044,10 @@
     <row r="53" spans="1:4">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="43" t="s">
+      <c r="C53" s="42" t="s">
         <v>413</v>
       </c>
-      <c r="D53" s="43" t="s">
+      <c r="D53" s="42" t="s">
         <v>414</v>
       </c>
     </row>
@@ -22546,22 +23056,22 @@
       <c r="B54" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="6"/>
       <c r="B55" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="6"/>
@@ -22574,10 +23084,10 @@
       <c r="B58" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="C58" s="43" t="s">
+      <c r="C58" s="42" t="s">
         <v>415</v>
       </c>
-      <c r="D58" s="43" t="s">
+      <c r="D58" s="42" t="s">
         <v>416</v>
       </c>
     </row>
@@ -22586,24 +23096,24 @@
       <c r="B59" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="6"/>
       <c r="B60" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C60" s="43"/>
-      <c r="D60" s="43"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="6"/>
       <c r="B61" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C61" s="43"/>
-      <c r="D61" s="43"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="6"/>
@@ -22616,10 +23126,10 @@
       <c r="B63" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C63" s="43" t="s">
+      <c r="C63" s="42" t="s">
         <v>417</v>
       </c>
-      <c r="D63" s="43" t="s">
+      <c r="D63" s="42" t="s">
         <v>418</v>
       </c>
     </row>
@@ -22628,20 +23138,20 @@
       <c r="B64" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
-      <c r="C65" s="43"/>
-      <c r="D65" s="43"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
-      <c r="C66" s="43"/>
-      <c r="D66" s="43"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="6"/>
@@ -22660,10 +23170,10 @@
       <c r="B69" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="C69" s="43" t="s">
+      <c r="C69" s="42" t="s">
         <v>419</v>
       </c>
-      <c r="D69" s="43" t="s">
+      <c r="D69" s="42" t="s">
         <v>420</v>
       </c>
     </row>
@@ -22672,22 +23182,22 @@
       <c r="B70" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="C70" s="43"/>
-      <c r="D70" s="43"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="6"/>
       <c r="B71" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="C71" s="43"/>
-      <c r="D71" s="43"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
-      <c r="C72" s="43"/>
-      <c r="D72" s="43"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="6"/>
@@ -22700,32 +23210,32 @@
       <c r="B74" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="C74" s="43" t="s">
+      <c r="C74" s="42" t="s">
         <v>423</v>
       </c>
-      <c r="D74" s="43" t="s">
+      <c r="D74" s="42" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
-      <c r="C75" s="43"/>
-      <c r="D75" s="43"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="42"/>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="6"/>
       <c r="B76" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="C76" s="43"/>
-      <c r="D76" s="43"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="42"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
-      <c r="C77" s="43"/>
-      <c r="D77" s="43"/>
+      <c r="C77" s="42"/>
+      <c r="D77" s="42"/>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="6"/>
@@ -22736,10 +23246,10 @@
     <row r="79" spans="1:4">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
-      <c r="C79" s="43" t="s">
+      <c r="C79" s="42" t="s">
         <v>426</v>
       </c>
-      <c r="D79" s="43" t="s">
+      <c r="D79" s="42" t="s">
         <v>427</v>
       </c>
     </row>
@@ -22748,24 +23258,24 @@
       <c r="B80" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C80" s="43"/>
-      <c r="D80" s="43"/>
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="6"/>
       <c r="B81" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="C81" s="43"/>
-      <c r="D81" s="43"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="6"/>
       <c r="B82" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="C82" s="43"/>
-      <c r="D82" s="43"/>
+      <c r="C82" s="42"/>
+      <c r="D82" s="42"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="6"/>
@@ -22778,10 +23288,10 @@
       <c r="B84" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="C84" s="43" t="s">
+      <c r="C84" s="42" t="s">
         <v>431</v>
       </c>
-      <c r="D84" s="43" t="s">
+      <c r="D84" s="42" t="s">
         <v>432</v>
       </c>
     </row>
@@ -22790,24 +23300,24 @@
       <c r="B85" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="C85" s="43"/>
-      <c r="D85" s="43"/>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="6"/>
       <c r="B86" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="C86" s="43"/>
-      <c r="D86" s="43"/>
+      <c r="C86" s="42"/>
+      <c r="D86" s="42"/>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="6"/>
       <c r="B87" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="C87" s="43"/>
-      <c r="D87" s="43"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="42"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="6"/>
@@ -22820,10 +23330,10 @@
       <c r="B89" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C89" s="43" t="s">
+      <c r="C89" s="42" t="s">
         <v>435</v>
       </c>
-      <c r="D89" s="43" t="s">
+      <c r="D89" s="42" t="s">
         <v>436</v>
       </c>
     </row>
@@ -22832,22 +23342,22 @@
       <c r="B90" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="C90" s="43"/>
-      <c r="D90" s="43"/>
+      <c r="C90" s="42"/>
+      <c r="D90" s="42"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="6"/>
       <c r="B91" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C91" s="43"/>
-      <c r="D91" s="43"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
-      <c r="C92" s="43"/>
-      <c r="D92" s="43"/>
+      <c r="C92" s="42"/>
+      <c r="D92" s="42"/>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="6"/>
@@ -22866,10 +23376,10 @@
       <c r="B95" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C95" s="43" t="s">
+      <c r="C95" s="42" t="s">
         <v>438</v>
       </c>
-      <c r="D95" s="43" t="s">
+      <c r="D95" s="42" t="s">
         <v>439</v>
       </c>
     </row>
@@ -22878,20 +23388,20 @@
       <c r="B96" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C96" s="43"/>
-      <c r="D96" s="43"/>
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
-      <c r="C97" s="43"/>
-      <c r="D97" s="43"/>
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
-      <c r="C98" s="43"/>
-      <c r="D98" s="43"/>
+      <c r="C98" s="42"/>
+      <c r="D98" s="42"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="6"/>
@@ -22904,10 +23414,10 @@
       <c r="B100" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C100" s="43" t="s">
+      <c r="C100" s="42" t="s">
         <v>440</v>
       </c>
-      <c r="D100" s="43" t="s">
+      <c r="D100" s="42" t="s">
         <v>441</v>
       </c>
     </row>
@@ -22916,20 +23426,20 @@
       <c r="B101" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C101" s="43"/>
-      <c r="D101" s="43"/>
+      <c r="C101" s="42"/>
+      <c r="D101" s="42"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
-      <c r="C102" s="43"/>
-      <c r="D102" s="43"/>
+      <c r="C102" s="42"/>
+      <c r="D102" s="42"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
-      <c r="C103" s="43"/>
-      <c r="D103" s="43"/>
+      <c r="C103" s="42"/>
+      <c r="D103" s="42"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="6"/>
@@ -22942,30 +23452,30 @@
       <c r="B105" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="C105" s="43" t="s">
+      <c r="C105" s="42" t="s">
         <v>443</v>
       </c>
-      <c r="D105" s="43" t="s">
+      <c r="D105" s="42" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
-      <c r="C106" s="43"/>
-      <c r="D106" s="43"/>
+      <c r="C106" s="42"/>
+      <c r="D106" s="42"/>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
-      <c r="C107" s="43"/>
-      <c r="D107" s="43"/>
+      <c r="C107" s="42"/>
+      <c r="D107" s="42"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
-      <c r="C108" s="43"/>
-      <c r="D108" s="43"/>
+      <c r="C108" s="42"/>
+      <c r="D108" s="42"/>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="6"/>
@@ -22976,10 +23486,10 @@
     <row r="110" spans="1:4">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
-      <c r="C110" s="43" t="s">
+      <c r="C110" s="42" t="s">
         <v>445</v>
       </c>
-      <c r="D110" s="43" t="s">
+      <c r="D110" s="42" t="s">
         <v>446</v>
       </c>
     </row>
@@ -22988,24 +23498,24 @@
       <c r="B111" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C111" s="43"/>
-      <c r="D111" s="43"/>
+      <c r="C111" s="42"/>
+      <c r="D111" s="42"/>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="6"/>
       <c r="B112" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C112" s="43"/>
-      <c r="D112" s="43"/>
+      <c r="C112" s="42"/>
+      <c r="D112" s="42"/>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="6"/>
       <c r="B113" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C113" s="43"/>
-      <c r="D113" s="43"/>
+      <c r="C113" s="42"/>
+      <c r="D113" s="42"/>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="6"/>
@@ -23018,30 +23528,30 @@
       <c r="B115" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="C115" s="43" t="s">
+      <c r="C115" s="42" t="s">
         <v>447</v>
       </c>
-      <c r="D115" s="43" t="s">
+      <c r="D115" s="42" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
-      <c r="C116" s="43"/>
-      <c r="D116" s="43"/>
+      <c r="C116" s="42"/>
+      <c r="D116" s="42"/>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
-      <c r="C117" s="43"/>
-      <c r="D117" s="43"/>
+      <c r="C117" s="42"/>
+      <c r="D117" s="42"/>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
-      <c r="C118" s="43"/>
-      <c r="D118" s="43"/>
+      <c r="C118" s="42"/>
+      <c r="D118" s="42"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="6"/>
@@ -23054,10 +23564,10 @@
       <c r="B120" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C120" s="43" t="s">
+      <c r="C120" s="42" t="s">
         <v>450</v>
       </c>
-      <c r="D120" s="43" t="s">
+      <c r="D120" s="42" t="s">
         <v>451</v>
       </c>
     </row>
@@ -23066,24 +23576,24 @@
       <c r="B121" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C121" s="43"/>
-      <c r="D121" s="43"/>
+      <c r="C121" s="42"/>
+      <c r="D121" s="42"/>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="6"/>
       <c r="B122" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="C122" s="43"/>
-      <c r="D122" s="43"/>
+      <c r="C122" s="42"/>
+      <c r="D122" s="42"/>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="6"/>
       <c r="B123" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C123" s="43"/>
-      <c r="D123" s="43"/>
+      <c r="C123" s="42"/>
+      <c r="D123" s="42"/>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="6"/>
@@ -23100,10 +23610,10 @@
     <row r="126" spans="1:4">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
-      <c r="C126" s="43" t="s">
+      <c r="C126" s="42" t="s">
         <v>452</v>
       </c>
-      <c r="D126" s="43" t="s">
+      <c r="D126" s="42" t="s">
         <v>453</v>
       </c>
     </row>
@@ -23112,20 +23622,20 @@
       <c r="B127" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="C127" s="43"/>
-      <c r="D127" s="43"/>
+      <c r="C127" s="42"/>
+      <c r="D127" s="42"/>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
-      <c r="C128" s="43"/>
-      <c r="D128" s="43"/>
+      <c r="C128" s="42"/>
+      <c r="D128" s="42"/>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
-      <c r="C129" s="43"/>
-      <c r="D129" s="43"/>
+      <c r="C129" s="42"/>
+      <c r="D129" s="42"/>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="6"/>
@@ -23138,10 +23648,10 @@
       <c r="B131" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="C131" s="43" t="s">
+      <c r="C131" s="42" t="s">
         <v>454</v>
       </c>
-      <c r="D131" s="43" t="s">
+      <c r="D131" s="42" t="s">
         <v>455</v>
       </c>
     </row>
@@ -23150,24 +23660,24 @@
       <c r="B132" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C132" s="43"/>
-      <c r="D132" s="43"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="42"/>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="6"/>
       <c r="B133" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="C133" s="43"/>
-      <c r="D133" s="43"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="42"/>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="6"/>
       <c r="B134" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C134" s="43"/>
-      <c r="D134" s="43"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="42"/>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="6"/>
@@ -23210,10 +23720,10 @@
       <c r="B141" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C141" s="43" t="s">
+      <c r="C141" s="42" t="s">
         <v>456</v>
       </c>
-      <c r="D141" s="43" t="s">
+      <c r="D141" s="42" t="s">
         <v>457</v>
       </c>
     </row>
@@ -23222,22 +23732,22 @@
       <c r="B142" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C142" s="43"/>
-      <c r="D142" s="43"/>
+      <c r="C142" s="42"/>
+      <c r="D142" s="42"/>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="6"/>
       <c r="B143" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="C143" s="43"/>
-      <c r="D143" s="43"/>
+      <c r="C143" s="42"/>
+      <c r="D143" s="42"/>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
-      <c r="C144" s="43"/>
-      <c r="D144" s="43"/>
+      <c r="C144" s="42"/>
+      <c r="D144" s="42"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="6"/>
@@ -23248,10 +23758,10 @@
     <row r="146" spans="1:4">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
-      <c r="C146" s="43" t="s">
+      <c r="C146" s="42" t="s">
         <v>458</v>
       </c>
-      <c r="D146" s="43" t="s">
+      <c r="D146" s="42" t="s">
         <v>459</v>
       </c>
     </row>
@@ -23260,20 +23770,20 @@
       <c r="B147" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="C147" s="43"/>
-      <c r="D147" s="43"/>
+      <c r="C147" s="42"/>
+      <c r="D147" s="42"/>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
-      <c r="C148" s="43"/>
-      <c r="D148" s="43"/>
+      <c r="C148" s="42"/>
+      <c r="D148" s="42"/>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
-      <c r="C149" s="43"/>
-      <c r="D149" s="43"/>
+      <c r="C149" s="42"/>
+      <c r="D149" s="42"/>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="6"/>
@@ -23286,10 +23796,10 @@
       <c r="B151" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="C151" s="43" t="s">
+      <c r="C151" s="42" t="s">
         <v>460</v>
       </c>
-      <c r="D151" s="43" t="s">
+      <c r="D151" s="42" t="s">
         <v>461</v>
       </c>
     </row>
@@ -23298,20 +23808,20 @@
       <c r="B152" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C152" s="43"/>
-      <c r="D152" s="43"/>
+      <c r="C152" s="42"/>
+      <c r="D152" s="42"/>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
-      <c r="C153" s="43"/>
-      <c r="D153" s="43"/>
+      <c r="C153" s="42"/>
+      <c r="D153" s="42"/>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
-      <c r="C154" s="43"/>
-      <c r="D154" s="43"/>
+      <c r="C154" s="42"/>
+      <c r="D154" s="42"/>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="6"/>
@@ -23324,10 +23834,10 @@
       <c r="B156" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="C156" s="43" t="s">
+      <c r="C156" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="D156" s="43" t="s">
+      <c r="D156" s="42" t="s">
         <v>464</v>
       </c>
     </row>
@@ -23336,22 +23846,22 @@
       <c r="B157" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C157" s="43"/>
-      <c r="D157" s="43"/>
+      <c r="C157" s="42"/>
+      <c r="D157" s="42"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
-      <c r="C158" s="43"/>
-      <c r="D158" s="43"/>
+      <c r="C158" s="42"/>
+      <c r="D158" s="42"/>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="6"/>
       <c r="B159" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C159" s="43"/>
-      <c r="D159" s="43"/>
+      <c r="C159" s="42"/>
+      <c r="D159" s="42"/>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="6"/>
@@ -23364,10 +23874,10 @@
       <c r="B161" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C161" s="43" t="s">
+      <c r="C161" s="42" t="s">
         <v>465</v>
       </c>
-      <c r="D161" s="43" t="s">
+      <c r="D161" s="42" t="s">
         <v>466</v>
       </c>
     </row>
@@ -23376,24 +23886,24 @@
       <c r="B162" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="C162" s="43"/>
-      <c r="D162" s="43"/>
+      <c r="C162" s="42"/>
+      <c r="D162" s="42"/>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="6"/>
       <c r="B163" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C163" s="43"/>
-      <c r="D163" s="43"/>
+      <c r="C163" s="42"/>
+      <c r="D163" s="42"/>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="6"/>
       <c r="B164" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C164" s="43"/>
-      <c r="D164" s="43"/>
+      <c r="C164" s="42"/>
+      <c r="D164" s="42"/>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="6"/>
@@ -23412,10 +23922,10 @@
       <c r="B167" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="C167" s="43" t="s">
+      <c r="C167" s="42" t="s">
         <v>388</v>
       </c>
-      <c r="D167" s="43" t="s">
+      <c r="D167" s="42" t="s">
         <v>388</v>
       </c>
     </row>
@@ -23424,20 +23934,20 @@
       <c r="B168" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="C168" s="43"/>
-      <c r="D168" s="43"/>
+      <c r="C168" s="42"/>
+      <c r="D168" s="42"/>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
-      <c r="C169" s="43"/>
-      <c r="D169" s="43"/>
+      <c r="C169" s="42"/>
+      <c r="D169" s="42"/>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
-      <c r="C170" s="43"/>
-      <c r="D170" s="43"/>
+      <c r="C170" s="42"/>
+      <c r="D170" s="42"/>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="6"/>
@@ -23450,30 +23960,30 @@
       <c r="B172" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="C172" s="43" t="s">
+      <c r="C172" s="42" t="s">
         <v>470</v>
       </c>
-      <c r="D172" s="43" t="s">
+      <c r="D172" s="42" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
-      <c r="C173" s="43"/>
-      <c r="D173" s="43"/>
+      <c r="C173" s="42"/>
+      <c r="D173" s="42"/>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
-      <c r="C174" s="43"/>
-      <c r="D174" s="43"/>
+      <c r="C174" s="42"/>
+      <c r="D174" s="42"/>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
-      <c r="C175" s="43"/>
-      <c r="D175" s="43"/>
+      <c r="C175" s="42"/>
+      <c r="D175" s="42"/>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="6"/>
@@ -23486,10 +23996,10 @@
       <c r="B177" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="C177" s="43" t="s">
+      <c r="C177" s="42" t="s">
         <v>472</v>
       </c>
-      <c r="D177" s="43" t="s">
+      <c r="D177" s="42" t="s">
         <v>473</v>
       </c>
     </row>
@@ -23498,24 +24008,24 @@
       <c r="B178" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="C178" s="43"/>
-      <c r="D178" s="43"/>
+      <c r="C178" s="42"/>
+      <c r="D178" s="42"/>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="6"/>
       <c r="B179" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="C179" s="43"/>
-      <c r="D179" s="43"/>
+      <c r="C179" s="42"/>
+      <c r="D179" s="42"/>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="6"/>
       <c r="B180" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="C180" s="43"/>
-      <c r="D180" s="43"/>
+      <c r="C180" s="42"/>
+      <c r="D180" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="69">
